--- a/resources/data-imports/Npcs/npcs.xlsx
+++ b/resources/data-imports/Npcs/npcs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -183,6 +183,15 @@
   </si>
   <si>
     <t>The Ice Plane</t>
+  </si>
+  <si>
+    <t>TheSoldiersBrother</t>
+  </si>
+  <si>
+    <t>The Soldiers Brother</t>
+  </si>
+  <si>
+    <t>Trix</t>
   </si>
 </sst>
 </file>
@@ -522,7 +531,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,8 +540,8 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="3.428" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="22.28" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="22.28" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="24.708" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="5.856" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="16.425" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="19.995" bestFit="true" customWidth="true" style="0"/>
@@ -1032,6 +1041,52 @@
       </c>
       <c r="J21">
         <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22">
+        <v>64</v>
+      </c>
+      <c r="J22">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23">
+        <v>16</v>
+      </c>
+      <c r="J23">
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/Npcs/npcs.xlsx
+++ b/resources/data-imports/Npcs/npcs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>id</t>
   </si>
@@ -192,6 +192,27 @@
   </si>
   <si>
     <t>Trix</t>
+  </si>
+  <si>
+    <t>TheDrunk</t>
+  </si>
+  <si>
+    <t>The Drunk</t>
+  </si>
+  <si>
+    <t>Twisted Memories</t>
+  </si>
+  <si>
+    <t>MadamTrixi</t>
+  </si>
+  <si>
+    <t>Madam Trixi</t>
+  </si>
+  <si>
+    <t>GraveDigger</t>
+  </si>
+  <si>
+    <t>Grave Digger</t>
   </si>
 </sst>
 </file>
@@ -531,7 +552,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,7 +564,7 @@
     <col min="2" max="2" width="22.28" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="24.708" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="5.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="16.425" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="19.995" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="19.995" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="29.421" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="28.136" bestFit="true" customWidth="true" style="0"/>
@@ -1087,6 +1108,75 @@
       </c>
       <c r="J23">
         <v>272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24">
+        <v>32</v>
+      </c>
+      <c r="J24">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I25">
+        <v>288</v>
+      </c>
+      <c r="J25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>61</v>
+      </c>
+      <c r="I26">
+        <v>384</v>
+      </c>
+      <c r="J26">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/Npcs/npcs.xlsx
+++ b/resources/data-imports/Npcs/npcs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>id</t>
   </si>
@@ -213,6 +213,18 @@
   </si>
   <si>
     <t>Grave Digger</t>
+  </si>
+  <si>
+    <t>TwistedCleric</t>
+  </si>
+  <si>
+    <t>Twisted Cleric</t>
+  </si>
+  <si>
+    <t>LonleyRedHawkSoldier</t>
+  </si>
+  <si>
+    <t>Lonley Red Hawk Soldier</t>
   </si>
 </sst>
 </file>
@@ -552,7 +564,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,8 +573,8 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="3.428" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="22.28" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="24.708" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="24.708" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="28.136" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="5.856" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="19.995" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="19.995" bestFit="true" customWidth="true" style="0"/>
@@ -1177,6 +1189,52 @@
       </c>
       <c r="J26">
         <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27">
+        <v>384</v>
+      </c>
+      <c r="J27">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28">
+        <v>368</v>
+      </c>
+      <c r="J28">
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/Npcs/npcs.xlsx
+++ b/resources/data-imports/Npcs/npcs.xlsx
@@ -221,10 +221,10 @@
     <t>Twisted Cleric</t>
   </si>
   <si>
-    <t>LonleyRedHawkSoldier</t>
-  </si>
-  <si>
-    <t>Lonley Red Hawk Soldier</t>
+    <t>LonelyRedHawkSoldier</t>
+  </si>
+  <si>
+    <t>Lonely Red Hawk Soldier</t>
   </si>
 </sst>
 </file>

--- a/resources/data-imports/Npcs/npcs.xlsx
+++ b/resources/data-imports/Npcs/npcs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
   <si>
     <t>id</t>
   </si>
@@ -225,6 +225,33 @@
   </si>
   <si>
     <t>Lonely Red Hawk Soldier</t>
+  </si>
+  <si>
+    <t>WanderingCleric</t>
+  </si>
+  <si>
+    <t>Wandering Cleric</t>
+  </si>
+  <si>
+    <t>Delusional Memories</t>
+  </si>
+  <si>
+    <t>JesterofTime</t>
+  </si>
+  <si>
+    <t>Jester of Time</t>
+  </si>
+  <si>
+    <t>HolyKnight</t>
+  </si>
+  <si>
+    <t>Holy Knight</t>
+  </si>
+  <si>
+    <t>FaithlessChild</t>
+  </si>
+  <si>
+    <t>Faithless Child</t>
   </si>
 </sst>
 </file>
@@ -564,7 +591,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,7 +603,7 @@
     <col min="2" max="2" width="24.708" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="28.136" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="5.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="19.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="23.423" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="19.995" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="29.421" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="28.136" bestFit="true" customWidth="true" style="0"/>
@@ -1235,6 +1262,98 @@
       </c>
       <c r="J28">
         <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>72</v>
+      </c>
+      <c r="I29">
+        <v>112</v>
+      </c>
+      <c r="J29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>72</v>
+      </c>
+      <c r="I30">
+        <v>448</v>
+      </c>
+      <c r="J30">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I31">
+        <v>16</v>
+      </c>
+      <c r="J31">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>72</v>
+      </c>
+      <c r="I32">
+        <v>96</v>
+      </c>
+      <c r="J32">
+        <v>432</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/Npcs/npcs.xlsx
+++ b/resources/data-imports/Npcs/npcs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
   <si>
     <t>id</t>
   </si>
@@ -252,6 +252,12 @@
   </si>
   <si>
     <t>Faithless Child</t>
+  </si>
+  <si>
+    <t>ProphetofTheChurch</t>
+  </si>
+  <si>
+    <t>Prophet of The Church</t>
   </si>
 </sst>
 </file>
@@ -591,7 +597,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1356,6 +1362,29 @@
         <v>432</v>
       </c>
     </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>72</v>
+      </c>
+      <c r="I33">
+        <v>208</v>
+      </c>
+      <c r="J33">
+        <v>416</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/data-imports/Npcs/npcs.xlsx
+++ b/resources/data-imports/Npcs/npcs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t>id</t>
   </si>
@@ -258,6 +258,12 @@
   </si>
   <si>
     <t>Prophet of The Church</t>
+  </si>
+  <si>
+    <t>FederationChancellor</t>
+  </si>
+  <si>
+    <t>Federation Chancellor</t>
   </si>
 </sst>
 </file>
@@ -597,7 +603,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1385,6 +1391,29 @@
         <v>416</v>
       </c>
     </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>72</v>
+      </c>
+      <c r="I34">
+        <v>80</v>
+      </c>
+      <c r="J34">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/data-imports/Npcs/npcs.xlsx
+++ b/resources/data-imports/Npcs/npcs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
   <si>
     <t>id</t>
   </si>
@@ -264,6 +264,12 @@
   </si>
   <si>
     <t>Federation Chancellor</t>
+  </si>
+  <si>
+    <t>Haggard'OlGoblin</t>
+  </si>
+  <si>
+    <t>Haggard 'Ol Goblin</t>
   </si>
 </sst>
 </file>
@@ -603,7 +609,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1414,6 +1420,29 @@
         <v>96</v>
       </c>
     </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35">
+        <v>16</v>
+      </c>
+      <c r="J35">
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/data-imports/Npcs/npcs.xlsx
+++ b/resources/data-imports/Npcs/npcs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <t>id</t>
   </si>
@@ -270,6 +270,12 @@
   </si>
   <si>
     <t>Haggard 'Ol Goblin</t>
+  </si>
+  <si>
+    <t>TheWitchofDelusions</t>
+  </si>
+  <si>
+    <t>The Witch of Delusions</t>
   </si>
 </sst>
 </file>
@@ -609,7 +615,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1443,6 +1449,29 @@
         <v>148</v>
       </c>
     </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I36">
+        <v>384</v>
+      </c>
+      <c r="J36">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/data-imports/Npcs/npcs.xlsx
+++ b/resources/data-imports/Npcs/npcs.xlsx
@@ -131,7 +131,7 @@
     <t>Child of Shade</t>
   </si>
   <si>
-    <t>HellsGateKeeper</t>
+    <t>Hell'sGatekeeper</t>
   </si>
   <si>
     <t>Hell's Gatekeeper</t>
@@ -960,10 +960,10 @@
         <v>40</v>
       </c>
       <c r="I14">
-        <v>16</v>
+        <v>1552</v>
       </c>
       <c r="J14">
-        <v>336</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1420,10 +1420,10 @@
         <v>72</v>
       </c>
       <c r="I34">
-        <v>80</v>
+        <v>592</v>
       </c>
       <c r="J34">
-        <v>96</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35" spans="1:10">

--- a/resources/data-imports/Npcs/npcs.xlsx
+++ b/resources/data-imports/Npcs/npcs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
   <si>
     <t>id</t>
   </si>
@@ -276,6 +276,18 @@
   </si>
   <si>
     <t>The Witch of Delusions</t>
+  </si>
+  <si>
+    <t>Mrs.Piper</t>
+  </si>
+  <si>
+    <t>Mrs. Piper</t>
+  </si>
+  <si>
+    <t>TheEnchantedSnowman</t>
+  </si>
+  <si>
+    <t>The Enchanted Snowman</t>
   </si>
 </sst>
 </file>
@@ -615,7 +627,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -684,10 +696,10 @@
         <v>12</v>
       </c>
       <c r="I2">
-        <v>96</v>
+        <v>384</v>
       </c>
       <c r="J2">
-        <v>192</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -707,10 +719,10 @@
         <v>12</v>
       </c>
       <c r="I3">
-        <v>160</v>
+        <v>288</v>
       </c>
       <c r="J3">
-        <v>80</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -730,10 +742,10 @@
         <v>12</v>
       </c>
       <c r="I4">
-        <v>464</v>
+        <v>1136</v>
       </c>
       <c r="J4">
-        <v>496</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -753,10 +765,10 @@
         <v>19</v>
       </c>
       <c r="I5">
-        <v>176</v>
+        <v>976</v>
       </c>
       <c r="J5">
-        <v>448</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -776,10 +788,10 @@
         <v>19</v>
       </c>
       <c r="I6">
-        <v>128</v>
+        <v>1040</v>
       </c>
       <c r="J6">
-        <v>384</v>
+        <v>592</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -799,10 +811,10 @@
         <v>19</v>
       </c>
       <c r="I7">
-        <v>112</v>
+        <v>1376</v>
       </c>
       <c r="J7">
-        <v>320</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -822,10 +834,10 @@
         <v>26</v>
       </c>
       <c r="I8">
-        <v>448</v>
+        <v>1344</v>
       </c>
       <c r="J8">
-        <v>96</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -845,10 +857,10 @@
         <v>12</v>
       </c>
       <c r="I9">
-        <v>32</v>
+        <v>1888</v>
       </c>
       <c r="J9">
-        <v>256</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -868,10 +880,10 @@
         <v>19</v>
       </c>
       <c r="I10">
-        <v>384</v>
+        <v>2016</v>
       </c>
       <c r="J10">
-        <v>496</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -891,10 +903,10 @@
         <v>33</v>
       </c>
       <c r="I11">
-        <v>288</v>
+        <v>784</v>
       </c>
       <c r="J11">
-        <v>480</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -914,10 +926,10 @@
         <v>26</v>
       </c>
       <c r="I12">
-        <v>384</v>
+        <v>688</v>
       </c>
       <c r="J12">
-        <v>368</v>
+        <v>512</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -960,10 +972,10 @@
         <v>40</v>
       </c>
       <c r="I14">
-        <v>1552</v>
+        <v>560</v>
       </c>
       <c r="J14">
-        <v>1392</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -983,10 +995,10 @@
         <v>40</v>
       </c>
       <c r="I15">
-        <v>432</v>
+        <v>864</v>
       </c>
       <c r="J15">
-        <v>80</v>
+        <v>608</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1006,10 +1018,10 @@
         <v>12</v>
       </c>
       <c r="I16">
-        <v>176</v>
+        <v>1072</v>
       </c>
       <c r="J16">
-        <v>144</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1029,10 +1041,10 @@
         <v>19</v>
       </c>
       <c r="I17">
-        <v>384</v>
+        <v>1696</v>
       </c>
       <c r="J17">
-        <v>64</v>
+        <v>496</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1052,10 +1064,10 @@
         <v>40</v>
       </c>
       <c r="I18">
-        <v>32</v>
+        <v>416</v>
       </c>
       <c r="J18">
-        <v>16</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1075,10 +1087,10 @@
         <v>40</v>
       </c>
       <c r="I19">
-        <v>16</v>
+        <v>1360</v>
       </c>
       <c r="J19">
-        <v>128</v>
+        <v>704</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1098,10 +1110,10 @@
         <v>26</v>
       </c>
       <c r="I20">
-        <v>96</v>
+        <v>304</v>
       </c>
       <c r="J20">
-        <v>496</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1121,10 +1133,10 @@
         <v>55</v>
       </c>
       <c r="I21">
-        <v>304</v>
+        <v>592</v>
       </c>
       <c r="J21">
-        <v>320</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1144,10 +1156,10 @@
         <v>55</v>
       </c>
       <c r="I22">
-        <v>64</v>
+        <v>1200</v>
       </c>
       <c r="J22">
-        <v>416</v>
+        <v>720</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1167,10 +1179,10 @@
         <v>55</v>
       </c>
       <c r="I23">
-        <v>16</v>
+        <v>1216</v>
       </c>
       <c r="J23">
-        <v>272</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1190,10 +1202,10 @@
         <v>61</v>
       </c>
       <c r="I24">
-        <v>32</v>
+        <v>944</v>
       </c>
       <c r="J24">
-        <v>304</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1213,10 +1225,10 @@
         <v>61</v>
       </c>
       <c r="I25">
-        <v>288</v>
+        <v>1328</v>
       </c>
       <c r="J25">
-        <v>304</v>
+        <v>496</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1236,10 +1248,10 @@
         <v>61</v>
       </c>
       <c r="I26">
-        <v>384</v>
+        <v>1008</v>
       </c>
       <c r="J26">
-        <v>32</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1259,10 +1271,10 @@
         <v>61</v>
       </c>
       <c r="I27">
-        <v>384</v>
+        <v>560</v>
       </c>
       <c r="J27">
-        <v>304</v>
+        <v>544</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1282,10 +1294,10 @@
         <v>61</v>
       </c>
       <c r="I28">
-        <v>368</v>
+        <v>1008</v>
       </c>
       <c r="J28">
-        <v>256</v>
+        <v>880</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1305,10 +1317,10 @@
         <v>72</v>
       </c>
       <c r="I29">
-        <v>112</v>
+        <v>1168</v>
       </c>
       <c r="J29">
-        <v>32</v>
+        <v>784</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1328,10 +1340,10 @@
         <v>72</v>
       </c>
       <c r="I30">
-        <v>448</v>
+        <v>736</v>
       </c>
       <c r="J30">
-        <v>320</v>
+        <v>944</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1351,10 +1363,10 @@
         <v>72</v>
       </c>
       <c r="I31">
-        <v>16</v>
+        <v>1280</v>
       </c>
       <c r="J31">
-        <v>224</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1374,10 +1386,10 @@
         <v>72</v>
       </c>
       <c r="I32">
-        <v>96</v>
+        <v>1760</v>
       </c>
       <c r="J32">
-        <v>432</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1397,10 +1409,10 @@
         <v>72</v>
       </c>
       <c r="I33">
-        <v>208</v>
+        <v>1344</v>
       </c>
       <c r="J33">
-        <v>416</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1443,10 +1455,10 @@
         <v>19</v>
       </c>
       <c r="I35">
-        <v>16</v>
+        <v>2336</v>
       </c>
       <c r="J35">
-        <v>148</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1466,10 +1478,56 @@
         <v>72</v>
       </c>
       <c r="I36">
-        <v>384</v>
+        <v>160</v>
       </c>
       <c r="J36">
-        <v>80</v>
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>55</v>
+      </c>
+      <c r="I37">
+        <v>640</v>
+      </c>
+      <c r="J37">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>55</v>
+      </c>
+      <c r="I38">
+        <v>304</v>
+      </c>
+      <c r="J38">
+        <v>1232</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/Npcs/npcs.xlsx
+++ b/resources/data-imports/Npcs/npcs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>id</t>
   </si>
@@ -288,6 +288,12 @@
   </si>
   <si>
     <t>The Enchanted Snowman</t>
+  </si>
+  <si>
+    <t>TheFrozenGeneral</t>
+  </si>
+  <si>
+    <t>The Frozen General</t>
   </si>
 </sst>
 </file>
@@ -627,7 +633,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1530,6 +1536,29 @@
         <v>1232</v>
       </c>
     </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>55</v>
+      </c>
+      <c r="I39">
+        <v>1856</v>
+      </c>
+      <c r="J39">
+        <v>736</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/data-imports/Npcs/npcs.xlsx
+++ b/resources/data-imports/Npcs/npcs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
   <si>
     <t>id</t>
   </si>
@@ -294,6 +294,12 @@
   </si>
   <si>
     <t>The Frozen General</t>
+  </si>
+  <si>
+    <t>FrozenSoul</t>
+  </si>
+  <si>
+    <t>Frozen Soul</t>
   </si>
 </sst>
 </file>
@@ -633,7 +639,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1139,10 +1145,10 @@
         <v>55</v>
       </c>
       <c r="I21">
-        <v>592</v>
+        <v>192</v>
       </c>
       <c r="J21">
-        <v>1904</v>
+        <v>608</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1557,6 +1563,29 @@
       </c>
       <c r="J39">
         <v>736</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>55</v>
+      </c>
+      <c r="I40">
+        <v>336</v>
+      </c>
+      <c r="J40">
+        <v>1248</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/Npcs/npcs.xlsx
+++ b/resources/data-imports/Npcs/npcs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
   <si>
     <t>id</t>
   </si>
@@ -300,6 +300,30 @@
   </si>
   <si>
     <t>Frozen Soul</t>
+  </si>
+  <si>
+    <t>Ladyoftheflames</t>
+  </si>
+  <si>
+    <t>Lady of the flames</t>
+  </si>
+  <si>
+    <t>LadyoftheShade</t>
+  </si>
+  <si>
+    <t>Lady of the Shade</t>
+  </si>
+  <si>
+    <t>EmeraldSoul</t>
+  </si>
+  <si>
+    <t>Emerald Soul</t>
+  </si>
+  <si>
+    <t>KeyMaker</t>
+  </si>
+  <si>
+    <t>Key Maker</t>
   </si>
 </sst>
 </file>
@@ -639,7 +663,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1588,6 +1612,98 @@
         <v>1248</v>
       </c>
     </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41">
+        <v>1040</v>
+      </c>
+      <c r="J41">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>72</v>
+      </c>
+      <c r="I42">
+        <v>544</v>
+      </c>
+      <c r="J42">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>72</v>
+      </c>
+      <c r="I43">
+        <v>1280</v>
+      </c>
+      <c r="J43">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44">
+        <v>1600</v>
+      </c>
+      <c r="J44">
+        <v>208</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/data-imports/Npcs/npcs.xlsx
+++ b/resources/data-imports/Npcs/npcs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
   <si>
     <t>id</t>
   </si>
@@ -324,6 +324,15 @@
   </si>
   <si>
     <t>Key Maker</t>
+  </si>
+  <si>
+    <t>TheRiverMan</t>
+  </si>
+  <si>
+    <t>The River Man</t>
+  </si>
+  <si>
+    <t>Purgatory</t>
   </si>
 </sst>
 </file>
@@ -663,7 +672,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1704,6 +1713,29 @@
         <v>208</v>
       </c>
     </row>
+    <row r="45" spans="1:10">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>105</v>
+      </c>
+      <c r="I45">
+        <v>1872</v>
+      </c>
+      <c r="J45">
+        <v>816</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/data-imports/Npcs/npcs.xlsx
+++ b/resources/data-imports/Npcs/npcs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
   <si>
     <t>id</t>
   </si>
@@ -333,6 +333,15 @@
   </si>
   <si>
     <t>Purgatory</t>
+  </si>
+  <si>
+    <t>Soldierofthegates</t>
+  </si>
+  <si>
+    <t>Soldier of the gates</t>
+  </si>
+  <si>
+    <t>Shadow</t>
   </si>
 </sst>
 </file>
@@ -672,7 +681,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1736,6 +1745,52 @@
         <v>816</v>
       </c>
     </row>
+    <row r="46" spans="1:10">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>105</v>
+      </c>
+      <c r="I46">
+        <v>1888</v>
+      </c>
+      <c r="J46">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>72</v>
+      </c>
+      <c r="I47">
+        <v>1824</v>
+      </c>
+      <c r="J47">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/data-imports/Npcs/npcs.xlsx
+++ b/resources/data-imports/Npcs/npcs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
   <si>
     <t>id</t>
   </si>
@@ -342,6 +342,18 @@
   </si>
   <si>
     <t>Shadow</t>
+  </si>
+  <si>
+    <t>TheRiverMerchant</t>
+  </si>
+  <si>
+    <t>The River Merchant</t>
+  </si>
+  <si>
+    <t>ChildofAlchemy</t>
+  </si>
+  <si>
+    <t>Child of Alchemy</t>
   </si>
 </sst>
 </file>
@@ -681,7 +693,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1791,6 +1803,52 @@
         <v>112</v>
       </c>
     </row>
+    <row r="48" spans="1:10">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>61</v>
+      </c>
+      <c r="I48">
+        <v>1280</v>
+      </c>
+      <c r="J48">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>61</v>
+      </c>
+      <c r="I49">
+        <v>1408</v>
+      </c>
+      <c r="J49">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/data-imports/Npcs/npcs.xlsx
+++ b/resources/data-imports/Npcs/npcs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
   <si>
     <t>id</t>
   </si>
@@ -354,6 +354,18 @@
   </si>
   <si>
     <t>Child of Alchemy</t>
+  </si>
+  <si>
+    <t>TheLittleGirl</t>
+  </si>
+  <si>
+    <t>The Little Girl</t>
+  </si>
+  <si>
+    <t>TheLadyinWhite</t>
+  </si>
+  <si>
+    <t>The Lady in White</t>
   </si>
 </sst>
 </file>
@@ -693,7 +705,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1849,6 +1861,52 @@
         <v>64</v>
       </c>
     </row>
+    <row r="50" spans="1:10">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50">
+        <v>224</v>
+      </c>
+      <c r="J50">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51">
+        <v>48</v>
+      </c>
+      <c r="J51">
+        <v>1040</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
